--- a/DateBase/orders/Dang Nguyen_2024-10-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -609,10 +609,91 @@
       <c r="A21" t="str">
         <v>5</v>
       </c>
+      <c r="C21" t="str">
+        <v>107_绣球单瓣浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F21" t="str">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>67_丘比特_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>72_泽娜_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>6</v>
+      </c>
+      <c r="C28" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F30" t="str">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L30"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -670,7 +751,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012639591818818163041911561090</v>
+        <v>0126395918188181630419115610910051210501041401020</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-16.xlsx
@@ -753,6 +753,9 @@
       <c r="G2" t="str">
         <v>0126395918188181630419115610910051210501041401020</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
